--- a/Data_S2__PQC_models.xlsx
+++ b/Data_S2__PQC_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafguerr/Dropbox/GGG Corn/Manuscript Figure Set/9_17_Satan Corn Supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48708A-B021-8441-A964-B471CBB2DC1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C843A-2012-DA48-B1D3-A9B83AC57DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="460" windowWidth="25740" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="25740" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC50" sheetId="1" r:id="rId1"/>
@@ -50,34 +50,34 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>E. coli, WT</t>
-  </si>
-  <si>
-    <t>L. grayi, WT</t>
-  </si>
-  <si>
-    <t>C. muridarum, WT</t>
-  </si>
-  <si>
-    <t>E. coli, GroEL</t>
-  </si>
-  <si>
-    <t>L. grayi, GroEL</t>
-  </si>
-  <si>
-    <t>C. muridarum, GroEL</t>
-  </si>
-  <si>
-    <t>E. coli, LON</t>
-  </si>
-  <si>
-    <t>L. grayi, LON</t>
-  </si>
-  <si>
-    <t>C. muridarum, LON</t>
-  </si>
-  <si>
-    <t>Species and context</t>
+    <t>DHFR-Ec, WT</t>
+  </si>
+  <si>
+    <t>DHFR-Ec, GroEL</t>
+  </si>
+  <si>
+    <t>DHFR-Lg, WT</t>
+  </si>
+  <si>
+    <t>DHFR-Lg, GroEL</t>
+  </si>
+  <si>
+    <t>DHFR-Cm, WT</t>
+  </si>
+  <si>
+    <t>DHFR-Cm, GroEL</t>
+  </si>
+  <si>
+    <t>DHFR-Ec, lon</t>
+  </si>
+  <si>
+    <t>DHFR-Lg, lon</t>
+  </si>
+  <si>
+    <t>DHFR-Cm, lon</t>
+  </si>
+  <si>
+    <t>DHFR species and context</t>
   </si>
 </sst>
 </file>
@@ -479,9 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -568,7 +566,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2</v>
@@ -633,7 +631,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
@@ -698,7 +696,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>4</v>
@@ -763,7 +761,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
@@ -1096,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F606F-E509-EC45-B04E-2D45F8F0B514}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1183,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>6</v>
@@ -1250,7 +1248,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>1</v>
@@ -1315,7 +1313,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>2</v>
@@ -1380,7 +1378,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>6</v>
